--- a/data/trans_orig/Q03B_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_R-Clase-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.183213797814366</v>
+        <v>1.183493747227406</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.361006347285872</v>
+        <v>1.336676508936902</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.76492455125652</v>
+        <v>1.765704335152021</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.58276522163707</v>
+        <v>2.611439835455478</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.978477449855003</v>
+        <v>2.998286751042611</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.874715308992263</v>
+        <v>2.877318605667795</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.773216897075053</v>
+        <v>1.779457014447662</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.068681364081253</v>
+        <v>2.063390846940177</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.295672630889702</v>
+        <v>2.289348394964449</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.45984443022424</v>
+        <v>1.473186324748335</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.643006628586661</v>
+        <v>1.636191590128554</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.016285120041412</v>
+        <v>2.025941298812737</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.002042379235411</v>
+        <v>2.979297505511942</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.440098198242552</v>
+        <v>3.436377073324599</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.224902776543096</v>
+        <v>3.237759567964526</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.031956028542404</v>
+        <v>2.025745281856455</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.348549410415603</v>
+        <v>2.358978120347141</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.5281105686642</v>
+        <v>2.516060553236893</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>1.681453576266799</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.798407357190815</v>
+        <v>1.798407357190816</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>3.233019731193281</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.197833322672905</v>
+        <v>1.184490899041714</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.54438315742182</v>
+        <v>1.541814128306961</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.669280282407711</v>
+        <v>1.679384325588629</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.005750794669756</v>
+        <v>3.036281461480696</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.19776884231741</v>
+        <v>3.218164811207727</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.132314471192514</v>
+        <v>3.123841700292893</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.159924650561552</v>
+        <v>2.155324448870161</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.332994104398542</v>
+        <v>2.315213331742766</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.424323237050954</v>
+        <v>2.441614486395592</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.553912783155768</v>
+        <v>1.536717111007025</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.823121134463347</v>
+        <v>1.822149444068904</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.940088955835382</v>
+        <v>1.928833375150095</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.444573799304486</v>
+        <v>3.452763681014186</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.658712332333777</v>
+        <v>3.656496647538195</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.579241100265536</v>
+        <v>3.571786317461001</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.468719477566188</v>
+        <v>2.468805951774826</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.614275549639154</v>
+        <v>2.606989729475363</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.715523002541409</v>
+        <v>2.725314330264772</v>
       </c>
     </row>
     <row r="10">
@@ -857,7 +857,7 @@
         <v>1.443054893522083</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.62525683239105</v>
+        <v>1.625256832391049</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>1.784042199726612</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.277032504432732</v>
+        <v>1.269483902837085</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.508255837577849</v>
+        <v>1.487120243594276</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.646499032726851</v>
+        <v>1.658705677268194</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.571595204869069</v>
+        <v>3.532527701497139</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.250317900828635</v>
+        <v>3.250941933582267</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.1304925605776</v>
+        <v>3.173230234606564</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.86068753167964</v>
+        <v>1.85826792292089</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.047742926933914</v>
+        <v>2.035938985694272</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.068177480147951</v>
+        <v>2.074086577837988</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.637610801392787</v>
+        <v>1.646230214691043</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.754801237111433</v>
+        <v>1.761482699654774</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.918568454135625</v>
+        <v>1.931739520996989</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.299269439434073</v>
+        <v>4.225871087071125</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.763003067352058</v>
+        <v>3.809098441037401</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.78419638613404</v>
+        <v>3.767065359390873</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.214814375358562</v>
+        <v>2.219500041741543</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.316360868205442</v>
+        <v>2.321853885413387</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.348179026681836</v>
+        <v>2.352764978769877</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.205036017894476</v>
+        <v>1.214897678041357</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.334822112612212</v>
+        <v>1.337761511249175</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.606866518266213</v>
+        <v>1.600420226619826</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.462273435619058</v>
+        <v>3.466244587721091</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.567294339111371</v>
+        <v>3.568151081781961</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.288115557942917</v>
+        <v>3.289927255509477</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.053060421198708</v>
+        <v>2.049837578938278</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.242192790706355</v>
+        <v>2.24524680829624</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.348923142405364</v>
+        <v>2.348438504189783</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.434918366819751</v>
+        <v>1.433680827786104</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.519135226069987</v>
+        <v>1.518619967495149</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.800384755748391</v>
+        <v>1.796871677874198</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.779445740301723</v>
+        <v>3.797907949398115</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.87109146994804</v>
+        <v>3.869042520913018</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.561174811054673</v>
+        <v>3.558215599398431</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.267063877229048</v>
+        <v>2.26559462805723</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.437449565309328</v>
+        <v>2.453601963479997</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.539550318430509</v>
+        <v>2.533955768662468</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9814913683252121</v>
+        <v>0.9786483243058237</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.3269881147301</v>
+        <v>1.311914883861353</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.522645163213775</v>
+        <v>1.519862307416985</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.041715973369862</v>
+        <v>4.049867626227007</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.75662176578922</v>
+        <v>3.754213096578831</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.812968001485932</v>
+        <v>3.805768129984807</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.910559228391056</v>
+        <v>2.883742284856553</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.796824347018599</v>
+        <v>2.797883265340845</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.80990351151826</v>
+        <v>2.807273374398759</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.315291148255043</v>
+        <v>1.331197292457266</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.591163429679092</v>
+        <v>1.578739014618295</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.753011303446513</v>
+        <v>1.752389922309251</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.483896302310188</v>
+        <v>4.478151519645534</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.092816406493417</v>
+        <v>4.081994676077342</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.112457053251031</v>
+        <v>4.128014298635041</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.287001663842666</v>
+        <v>3.262130393121142</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.064096223971488</v>
+        <v>3.051420686877973</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.05216578193205</v>
+        <v>3.038135061462749</v>
       </c>
     </row>
     <row r="19">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.6529057854700847</v>
+        <v>0.6529057854700848</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.8287505270446045</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1.202097738320941</v>
+        <v>1.20209773832094</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>3.430633437215318</v>
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.529129059553353</v>
+        <v>0.5226904853709577</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6865471033835926</v>
+        <v>0.6851703069705102</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.071024716892293</v>
+        <v>1.079885631282545</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.297131644961209</v>
+        <v>3.297609232813708</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3.076452528931344</v>
+        <v>3.080443067236895</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.20361308986356</v>
+        <v>3.19437402486673</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.783498506407116</v>
+        <v>2.766167138362986</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.61509240767937</v>
+        <v>2.631599689331197</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.779143174911575</v>
+        <v>2.777770355297573</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8088294187684324</v>
+        <v>0.8078409041252826</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.05145716452545</v>
+        <v>1.034091266589896</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.356705135713853</v>
+        <v>1.374508215716105</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.583314810417337</v>
+        <v>3.571825759401409</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.343156483292102</v>
+        <v>3.353096841506865</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.452747921468753</v>
+        <v>3.44963870086344</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>3.035838132606502</v>
+        <v>3.017726091288737</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.881513656953153</v>
+        <v>2.888265455764624</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>3.014010511226666</v>
+        <v>3.017089863581413</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.196547922527346</v>
+        <v>1.201034094854703</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.403363571651207</v>
+        <v>1.404828296251909</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.641449455155775</v>
+        <v>1.642358091989779</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.47126103829331</v>
+        <v>3.468514762877692</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.437952414016689</v>
+        <v>3.435183201406357</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.386335677761585</v>
+        <v>3.387301513093076</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.372879973848702</v>
+        <v>2.367949328853351</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.457651892815882</v>
+        <v>2.451399870074124</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.563105904211548</v>
+        <v>2.564021022335964</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.322637934812963</v>
+        <v>1.323436172374818</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.511394955300237</v>
+        <v>1.509441950598041</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.744886184396964</v>
+        <v>1.749980196139043</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.630139301474939</v>
+        <v>3.630900068668765</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.577971714180614</v>
+        <v>3.579505591167826</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.530795054655532</v>
+        <v>3.525171971327548</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.490744918351924</v>
+        <v>2.495572279275028</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.556686505342077</v>
+        <v>2.559630094673194</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.658966985850514</v>
+        <v>2.657203285634373</v>
       </c>
     </row>
     <row r="25">
